--- a/Result/LSTM Multi/Service/USA.xlsx
+++ b/Result/LSTM Multi/Service/USA.xlsx
@@ -399,7 +399,7 @@
         <v>1997</v>
       </c>
       <c r="B2">
-        <v>16.08717737576003</v>
+        <v>71.80902863255352</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -407,7 +407,7 @@
         <v>1998</v>
       </c>
       <c r="B3">
-        <v>15.7743252610376</v>
+        <v>72.41981985859105</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -415,7 +415,7 @@
         <v>1999</v>
       </c>
       <c r="B4">
-        <v>15.45906690508512</v>
+        <v>72.68984179443413</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -423,7 +423,7 @@
         <v>2000</v>
       </c>
       <c r="B5">
-        <v>15.11507499065894</v>
+        <v>72.81844773951202</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -431,7 +431,7 @@
         <v>2001</v>
       </c>
       <c r="B6">
-        <v>13.91930940251579</v>
+        <v>74.01746915996874</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -439,7 +439,7 @@
         <v>2002</v>
       </c>
       <c r="B7">
-        <v>13.45287764024212</v>
+        <v>74.86370124170796</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -447,7 +447,7 @@
         <v>2003</v>
       </c>
       <c r="B8">
-        <v>13.3165117541749</v>
+        <v>74.60409933915189</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -455,7 +455,7 @@
         <v>2004</v>
       </c>
       <c r="B9">
-        <v>13.17418108165371</v>
+        <v>74.1637865273611</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -463,7 +463,7 @@
         <v>2005</v>
       </c>
       <c r="B10">
-        <v>12.98331951941368</v>
+        <v>74.02568269055816</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -471,7 +471,7 @@
         <v>2006</v>
       </c>
       <c r="B11">
-        <v>12.99072266531401</v>
+        <v>73.70136842050006</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -479,7 +479,7 @@
         <v>2007</v>
       </c>
       <c r="B12">
-        <v>12.76975661036177</v>
+        <v>73.92206182220272</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -487,7 +487,7 @@
         <v>2008</v>
       </c>
       <c r="B13">
-        <v>12.21673020060782</v>
+        <v>74.61953604030172</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -495,7 +495,7 @@
         <v>2009</v>
       </c>
       <c r="B14">
-        <v>11.69878959461227</v>
+        <v>76.51433450878595</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -503,7 +503,7 @@
         <v>2010</v>
       </c>
       <c r="B15">
-        <v>11.90608509753218</v>
+        <v>76.2772193576192</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -511,7 +511,7 @@
         <v>2011</v>
       </c>
       <c r="B16">
-        <v>11.94724683215558</v>
+        <v>75.9014962160953</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -519,7 +519,7 @@
         <v>2012</v>
       </c>
       <c r="B17">
-        <v>11.85756063027308</v>
+        <v>76.16380034260708</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -527,7 +527,7 @@
         <v>2013</v>
       </c>
       <c r="B18">
-        <v>11.79811646038965</v>
+        <v>75.81605357504479</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -535,7 +535,7 @@
         <v>2014</v>
       </c>
       <c r="B19">
-        <v>11.65547548994952</v>
+        <v>75.82754097311374</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -543,7 +543,7 @@
         <v>2015</v>
       </c>
       <c r="B20">
-        <v>11.66231343029535</v>
+        <v>76.74239628616712</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -551,7 +551,7 @@
         <v>2016</v>
       </c>
       <c r="B21">
-        <v>11.22363791652988</v>
+        <v>77.43969290342653</v>
       </c>
     </row>
   </sheetData>
@@ -580,7 +580,7 @@
         <v>2017</v>
       </c>
       <c r="B2">
-        <v>11.69099140167236</v>
+        <v>75.83139801025391</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -588,7 +588,7 @@
         <v>2018</v>
       </c>
       <c r="B3">
-        <v>11.78482627868652</v>
+        <v>75.83425140380859</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -596,7 +596,7 @@
         <v>2019</v>
       </c>
       <c r="B4">
-        <v>11.82625102996826</v>
+        <v>75.83758544921875</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -604,7 +604,7 @@
         <v>2020</v>
       </c>
       <c r="B5">
-        <v>11.89046573638916</v>
+        <v>75.82382202148438</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -612,7 +612,7 @@
         <v>2021</v>
       </c>
       <c r="B6">
-        <v>11.9115629196167</v>
+        <v>75.82088470458984</v>
       </c>
     </row>
   </sheetData>
@@ -641,7 +641,7 @@
         <v>1997</v>
       </c>
       <c r="B2">
-        <v>16.08717737576003</v>
+        <v>71.80902863255352</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -649,7 +649,7 @@
         <v>1998</v>
       </c>
       <c r="B3">
-        <v>15.7743252610376</v>
+        <v>72.41981985859105</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -657,7 +657,7 @@
         <v>1999</v>
       </c>
       <c r="B4">
-        <v>15.45906690508512</v>
+        <v>72.68984179443413</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -665,7 +665,7 @@
         <v>2000</v>
       </c>
       <c r="B5">
-        <v>15.11507499065894</v>
+        <v>72.81844773951202</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -673,7 +673,7 @@
         <v>2001</v>
       </c>
       <c r="B6">
-        <v>13.91930940251579</v>
+        <v>74.01746915996874</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -681,7 +681,7 @@
         <v>2002</v>
       </c>
       <c r="B7">
-        <v>13.45287764024212</v>
+        <v>74.86370124170796</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -689,7 +689,7 @@
         <v>2003</v>
       </c>
       <c r="B8">
-        <v>13.3165117541749</v>
+        <v>74.60409933915189</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -697,7 +697,7 @@
         <v>2004</v>
       </c>
       <c r="B9">
-        <v>13.17418108165371</v>
+        <v>74.1637865273611</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -705,7 +705,7 @@
         <v>2005</v>
       </c>
       <c r="B10">
-        <v>12.98331951941368</v>
+        <v>74.02568269055816</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -713,7 +713,7 @@
         <v>2006</v>
       </c>
       <c r="B11">
-        <v>12.99072266531401</v>
+        <v>73.70136842050006</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -721,7 +721,7 @@
         <v>2007</v>
       </c>
       <c r="B12">
-        <v>12.76975661036177</v>
+        <v>73.92206182220272</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -729,7 +729,7 @@
         <v>2008</v>
       </c>
       <c r="B13">
-        <v>12.21673020060782</v>
+        <v>74.61953604030172</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -737,7 +737,7 @@
         <v>2009</v>
       </c>
       <c r="B14">
-        <v>11.69878959461227</v>
+        <v>76.51433450878595</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -745,7 +745,7 @@
         <v>2010</v>
       </c>
       <c r="B15">
-        <v>11.90608509753218</v>
+        <v>76.2772193576192</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -753,7 +753,7 @@
         <v>2011</v>
       </c>
       <c r="B16">
-        <v>11.94724683215558</v>
+        <v>75.9014962160953</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -761,7 +761,7 @@
         <v>2012</v>
       </c>
       <c r="B17">
-        <v>11.85756063027308</v>
+        <v>76.16380034260708</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -769,7 +769,7 @@
         <v>2013</v>
       </c>
       <c r="B18">
-        <v>11.79811646038965</v>
+        <v>75.81605357504479</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -777,7 +777,7 @@
         <v>2014</v>
       </c>
       <c r="B19">
-        <v>11.65547548994952</v>
+        <v>75.82754097311374</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -785,7 +785,7 @@
         <v>2015</v>
       </c>
       <c r="B20">
-        <v>11.66231343029535</v>
+        <v>76.74239628616712</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -793,7 +793,7 @@
         <v>2016</v>
       </c>
       <c r="B21">
-        <v>11.22363791652988</v>
+        <v>77.43969290342653</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -801,7 +801,7 @@
         <v>2017</v>
       </c>
       <c r="B22">
-        <v>11.25487168998816</v>
+        <v>77.03139272153369</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -809,7 +809,7 @@
         <v>2018</v>
       </c>
       <c r="B23">
-        <v>11.34219756039769</v>
+        <v>76.73973785773181</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -817,7 +817,7 @@
         <v>2019</v>
       </c>
       <c r="B24">
-        <v>11.07164491768661</v>
+        <v>77.1995025991171</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -825,7 +825,7 @@
         <v>2020</v>
       </c>
       <c r="B25">
-        <v>11.18777772755131</v>
+        <v>80.1364098690393</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -833,7 +833,7 @@
         <v>2021</v>
       </c>
       <c r="B26">
-        <v>10.21250954140172</v>
+        <v>78.37621815015305</v>
       </c>
     </row>
   </sheetData>
@@ -862,7 +862,7 @@
         <v>2022</v>
       </c>
       <c r="B2">
-        <v>11.49339199066162</v>
+        <v>75.85608673095703</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -870,7 +870,7 @@
         <v>2023</v>
       </c>
       <c r="B3">
-        <v>11.64695072174072</v>
+        <v>75.86825561523438</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -878,7 +878,7 @@
         <v>2024</v>
       </c>
       <c r="B4">
-        <v>11.73138904571533</v>
+        <v>75.89070129394531</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -886,7 +886,7 @@
         <v>2025</v>
       </c>
       <c r="B5">
-        <v>11.77691078186035</v>
+        <v>75.90726470947266</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -894,7 +894,7 @@
         <v>2026</v>
       </c>
       <c r="B6">
-        <v>11.8183479309082</v>
+        <v>75.81708526611328</v>
       </c>
     </row>
   </sheetData>
